--- a/set_data_todb/Roles and TIERS.xlsx
+++ b/set_data_todb/Roles and TIERS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maksim\PycharmProjects\divideRules\set_data_todb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA5776A-2C93-42FA-B1A0-41CE2511F207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453598D3-B871-4B0E-8EE4-B51BFA5AB32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{51A36C10-49AA-4CC0-B352-B9E231025FBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51A36C10-49AA-4CC0-B352-B9E231025FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="37">
   <si>
     <t>TIER</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>head_waiter</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>can_set_count_of_restoraunts</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7BFFFA2-1BE9-47CD-9A4F-7912A7E0E784}" name="Таблица1" displayName="Таблица1" ref="A1:K9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:K9" xr:uid="{A7BFFFA2-1BE9-47CD-9A4F-7912A7E0E784}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K9">
-    <sortCondition ref="B1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7BFFFA2-1BE9-47CD-9A4F-7912A7E0E784}" name="Таблица1" displayName="Таблица1" ref="A1:K10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:K10" xr:uid="{A7BFFFA2-1BE9-47CD-9A4F-7912A7E0E784}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K10">
+    <sortCondition ref="B1:B10"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DA5A5314-8048-4C17-B6C6-EECE9377561D}" name="Role_name" dataDxfId="23"/>
@@ -406,7 +412,7 @@
     <tableColumn id="5" xr3:uid="{813DAFC1-7DD2-449B-BB30-E51726D1F802}" name="can_add_new_worker" dataDxfId="19"/>
     <tableColumn id="6" xr3:uid="{A19ECE1C-8499-4F5B-B1CE-A4B0A43BE9CF}" name="can_change_restorant_of_worker" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{9E14541D-195A-4E45-8310-FB72217EEC7E}" name="can_create_new_restorant" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{9D964F54-331E-499C-97A5-C663F4027ACA}" name="operation_name_4" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{9D964F54-331E-499C-97A5-C663F4027ACA}" name="can_set_count_of_restoraunts" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{FD4A870E-32E0-4FA5-A5ED-4F7F23F1D899}" name="operation_name_5" dataDxfId="15"/>
     <tableColumn id="10" xr3:uid="{A2A7048A-DBEA-4E1A-B0F7-96AC5A1D2EA4}" name="operation_name_6" dataDxfId="14"/>
     <tableColumn id="11" xr3:uid="{DA5C29F7-E650-44B2-99CF-E5C24BB2E127}" name="operation_name_7" dataDxfId="13"/>
@@ -731,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BBC605-8922-428A-89ED-5812CAA6FB74}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +779,7 @@
         <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -787,7 +793,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -822,7 +828,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -840,13 +846,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
@@ -857,7 +863,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -869,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -892,13 +898,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -927,10 +933,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -962,7 +968,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -997,16 +1003,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1032,36 +1038,71 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1071,7 +1112,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28" xr:uid="{C679CFBB-F4BE-4C78-97CF-F1F0B04B1437}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29" xr:uid="{C679CFBB-F4BE-4C78-97CF-F1F0B04B1437}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -1087,13 +1128,13 @@
           <x14:formula1>
             <xm:f>Settings!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:K14</xm:sqref>
+          <xm:sqref>C2:K15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{399856AB-D54F-44D9-B72A-FF541CB4B2F6}">
           <x14:formula1>
             <xm:f>Settings!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A16</xm:sqref>
+          <xm:sqref>A2:A17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1268,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7C5BBE-04B0-477C-BA76-CD882E786CE8}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,6 +1375,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
